--- a/data/trans_orig/P6901-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6901-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED2DF91A-54EF-45DA-840D-856D4D064102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05308A24-ED12-4284-AB4A-8FDF997C48B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7DC1FC70-71BF-4D52-A7BB-B73E875766EA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A79D87BF-BAC6-492D-AF87-15F21B6EE8C3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>86,14%</t>
   </si>
   <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
   </si>
   <si>
     <t>84,52%</t>
   </si>
   <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
   </si>
   <si>
     <t>85,73%</t>
   </si>
   <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>13,86%</t>
   </si>
   <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
   </si>
   <si>
     <t>15,48%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
   </si>
   <si>
     <t>14,27%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>76,45%</t>
   </si>
   <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
   </si>
   <si>
     <t>82,99%</t>
   </si>
   <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
   </si>
   <si>
     <t>78,36%</t>
   </si>
   <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
   </si>
   <si>
     <t>23,55%</t>
   </si>
   <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
   </si>
   <si>
     <t>17,01%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
   </si>
   <si>
     <t>21,64%</t>
   </si>
   <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>53,1%</t>
   </si>
   <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
   </si>
   <si>
     <t>64,75%</t>
   </si>
   <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
   </si>
   <si>
     <t>58,5%</t>
   </si>
   <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
   </si>
   <si>
     <t>46,9%</t>
   </si>
   <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
   </si>
   <si>
     <t>35,25%</t>
   </si>
   <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
   </si>
   <si>
     <t>41,5%</t>
   </si>
   <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
   </si>
   <si>
     <t>75,07%</t>
   </si>
   <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
   </si>
   <si>
     <t>77,95%</t>
   </si>
   <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
   </si>
   <si>
     <t>75,99%</t>
   </si>
   <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
   </si>
   <si>
     <t>24,93%</t>
   </si>
   <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
   </si>
   <si>
     <t>22,05%</t>
   </si>
   <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
   </si>
   <si>
     <t>24,01%</t>
   </si>
   <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,211 +311,211 @@
     <t>72,19%</t>
   </si>
   <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
   </si>
   <si>
     <t>72,36%</t>
   </si>
   <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
   </si>
   <si>
     <t>27,81%</t>
   </si>
   <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
   </si>
   <si>
     <t>27,64%</t>
   </si>
   <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
   </si>
   <si>
     <t>75,94%</t>
   </si>
   <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
   </si>
   <si>
     <t>85,48%</t>
   </si>
   <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
   </si>
   <si>
     <t>79,48%</t>
   </si>
   <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
   </si>
   <si>
     <t>24,06%</t>
   </si>
   <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
   </si>
   <si>
     <t>14,52%</t>
   </si>
   <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
   </si>
   <si>
     <t>20,52%</t>
   </si>
   <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
   </si>
   <si>
     <t>68,57%</t>
   </si>
   <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
   </si>
   <si>
     <t>60,94%</t>
   </si>
   <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
   </si>
   <si>
     <t>64,79%</t>
   </si>
   <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
   </si>
   <si>
     <t>31,43%</t>
   </si>
   <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
   </si>
   <si>
     <t>39,06%</t>
   </si>
   <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
   </si>
   <si>
     <t>35,21%</t>
   </si>
   <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
   </si>
   <si>
     <t>74,23%</t>
   </si>
   <si>
-    <t>68,82%</t>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
   </si>
   <si>
     <t>78,0%</t>
   </si>
   <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
   </si>
   <si>
     <t>75,72%</t>
   </si>
   <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
   </si>
   <si>
     <t>25,77%</t>
   </si>
   <si>
-    <t>31,18%</t>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
   </si>
   <si>
     <t>22,0%</t>
   </si>
   <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
   </si>
   <si>
     <t>24,28%</t>
   </si>
   <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
   </si>
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2015 (Tasa respuesta: 8,05%)</t>
@@ -524,16 +524,16 @@
     <t>77,76%</t>
   </si>
   <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
   </si>
   <si>
     <t>88,95%</t>
   </si>
   <si>
-    <t>66,44%</t>
+    <t>65,3%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -542,19 +542,19 @@
     <t>80,5%</t>
   </si>
   <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
   </si>
   <si>
     <t>22,24%</t>
   </si>
   <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
   </si>
   <si>
     <t>11,05%</t>
@@ -563,385 +563,379 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>33,56%</t>
+    <t>34,7%</t>
   </si>
   <si>
     <t>19,5%</t>
   </si>
   <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
   </si>
   <si>
     <t>77,88%</t>
   </si>
   <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
   </si>
   <si>
     <t>90,65%</t>
   </si>
   <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
   </si>
   <si>
     <t>82,37%</t>
   </si>
   <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
     <t>78,03%</t>
   </si>
   <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
   </si>
   <si>
     <t>21,97%</t>
   </si>
   <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
     <t>19,24%</t>
   </si>
   <si>
     <t>16,0%</t>
   </si>
   <si>
-    <t>23,15%</t>
+    <t>23,05%</t>
   </si>
   <si>
     <t>46,87%</t>
   </si>
   <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
   </si>
   <si>
     <t>62,1%</t>
   </si>
   <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
   </si>
   <si>
     <t>55,66%</t>
   </si>
   <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
   </si>
   <si>
     <t>53,13%</t>
   </si>
   <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
   </si>
   <si>
     <t>37,9%</t>
   </si>
   <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
   </si>
   <si>
     <t>44,34%</t>
   </si>
   <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
   </si>
   <si>
     <t>72,94%</t>
   </si>
   <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
   </si>
   <si>
     <t>76,25%</t>
   </si>
   <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
   </si>
   <si>
     <t>74,62%</t>
   </si>
   <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
   </si>
   <si>
     <t>27,06%</t>
   </si>
   <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
   </si>
   <si>
     <t>23,75%</t>
   </si>
   <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
   </si>
   <si>
     <t>25,38%</t>
   </si>
   <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D037B3-BCAC-4B78-97BC-C82994446C4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCFC5D4-1483-4BAB-B4B9-2E0606242814}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2104,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A01354-0039-4765-A68E-FB09A06FB0D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F82C74A-E027-4B54-9607-509311A31398}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2243,13 +2237,13 @@
         <v>27546</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>68</v>
@@ -2258,13 +2252,13 @@
         <v>69972</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,13 +2273,13 @@
         <v>16341</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -2294,13 +2288,13 @@
         <v>10389</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>26</v>
@@ -2309,13 +2303,13 @@
         <v>26730</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,13 +2377,13 @@
         <v>168389</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>102</v>
@@ -2398,13 +2392,13 @@
         <v>111577</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>264</v>
@@ -2413,13 +2407,13 @@
         <v>279966</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,13 +2428,13 @@
         <v>53350</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -2449,13 +2443,13 @@
         <v>18953</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>67</v>
@@ -2464,13 +2458,13 @@
         <v>72303</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,13 +2532,13 @@
         <v>31601</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -2553,13 +2547,13 @@
         <v>27541</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>53</v>
@@ -2568,13 +2562,13 @@
         <v>59142</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,13 +2583,13 @@
         <v>14488</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -2604,13 +2598,13 @@
         <v>17655</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -2619,13 +2613,13 @@
         <v>32143</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2687,13 @@
         <v>242417</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>152</v>
@@ -2708,13 +2702,13 @@
         <v>166663</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M13" s="7">
         <v>385</v>
@@ -2723,13 +2717,13 @@
         <v>409079</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,10 +2738,10 @@
         <v>84178</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>152</v>
@@ -2855,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6B9DD2-DB00-4A09-B95A-A7CDBB3140A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1E777E-0054-4DAF-B072-A9C1B7F63379}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3444,13 +3438,13 @@
         <v>259285</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>176</v>
@@ -3459,10 +3453,10 @@
         <v>183756</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>218</v>
@@ -3477,10 +3471,10 @@
         <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,7 +3489,7 @@
         <v>89206</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>139</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>222</v>
@@ -3516,7 +3510,7 @@
         <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>112</v>
@@ -3525,13 +3519,13 @@
         <v>121748</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>151</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200599D2-A5AE-4EB0-9C8D-F2936B786347}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B32D10-EBDD-4130-B48A-205EBE682448}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3623,7 +3617,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3730,13 +3724,13 @@
         <v>26268</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -3745,13 +3739,13 @@
         <v>20646</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>62</v>
@@ -3760,13 +3754,13 @@
         <v>46913</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3775,13 @@
         <v>4212</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3796,13 +3790,13 @@
         <v>8348</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -3811,10 +3805,10 @@
         <v>12561</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>246</v>
@@ -3900,13 +3894,13 @@
         <v>193749</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>443</v>
@@ -3915,13 +3909,13 @@
         <v>390301</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3930,13 @@
         <v>52798</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>52</v>
@@ -3951,13 +3945,13 @@
         <v>40212</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>103</v>
@@ -3966,13 +3960,13 @@
         <v>93010</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4034,13 @@
         <v>33660</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>86</v>
@@ -4055,13 +4049,13 @@
         <v>60914</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>115</v>
@@ -4070,13 +4064,13 @@
         <v>94574</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4085,13 @@
         <v>38157</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H11" s="7">
         <v>45</v>
@@ -4106,13 +4100,13 @@
         <v>37182</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M11" s="7">
         <v>79</v>
@@ -4121,13 +4115,13 @@
         <v>75339</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4189,13 @@
         <v>256479</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>373</v>
@@ -4210,13 +4204,13 @@
         <v>275309</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>620</v>
@@ -4225,13 +4219,13 @@
         <v>531788</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4240,13 @@
         <v>95167</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>100</v>
@@ -4261,13 +4255,13 @@
         <v>85743</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>190</v>
@@ -4276,13 +4270,13 @@
         <v>180910</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6901-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6901-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05308A24-ED12-4284-AB4A-8FDF997C48B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40BF951A-B668-47F5-8272-DDEA61614069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A79D87BF-BAC6-492D-AF87-15F21B6EE8C3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED3F2597-D5B7-42D0-AA82-F0504F631570}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,742 +77,754 @@
     <t>86,14%</t>
   </si>
   <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
   </si>
   <si>
     <t>84,52%</t>
   </si>
   <si>
-    <t>70,12%</t>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2012 (Tasa respuesta: 7,84%)</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
   </si>
   <si>
     <t>92,82%</t>
   </si>
   <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
   </si>
   <si>
     <t>7,18%</t>
   </si>
   <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2012 (Tasa respuesta: 7,84%)</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
   </si>
   <si>
     <t>82,81%</t>
   </si>
   <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
   </si>
   <si>
     <t>17,19%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
   </si>
   <si>
     <t>13,14%</t>
@@ -1347,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCFC5D4-1483-4BAB-B4B9-2E0606242814}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D830C1-59C4-4BCA-8401-45BA10102508}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2098,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F82C74A-E027-4B54-9607-509311A31398}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B97AF51-67AD-43FE-BC5D-93F3FF942EB5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2237,13 +2249,13 @@
         <v>27546</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>68</v>
@@ -2252,13 +2264,13 @@
         <v>69972</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,13 +2285,13 @@
         <v>16341</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -2288,13 +2300,13 @@
         <v>10389</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>26</v>
@@ -2303,13 +2315,13 @@
         <v>26730</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2389,13 @@
         <v>168389</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>102</v>
@@ -2392,13 +2404,13 @@
         <v>111577</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>264</v>
@@ -2407,13 +2419,13 @@
         <v>279966</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2440,13 @@
         <v>53350</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -2443,13 +2455,13 @@
         <v>18953</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>67</v>
@@ -2458,13 +2470,13 @@
         <v>72303</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2544,13 @@
         <v>31601</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -2547,13 +2559,13 @@
         <v>27541</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>53</v>
@@ -2562,13 +2574,13 @@
         <v>59142</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2595,13 @@
         <v>14488</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -2598,13 +2610,13 @@
         <v>17655</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -2613,13 +2625,13 @@
         <v>32143</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2699,13 @@
         <v>242417</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>152</v>
@@ -2702,13 +2714,13 @@
         <v>166663</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>385</v>
@@ -2717,13 +2729,13 @@
         <v>409079</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2750,13 @@
         <v>84178</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -2753,13 +2765,13 @@
         <v>46998</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>124</v>
@@ -2768,13 +2780,13 @@
         <v>131176</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1E777E-0054-4DAF-B072-A9C1B7F63379}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F347713C-3890-42F6-BF39-F4E1C5AADA7E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2866,7 +2878,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2973,13 +2985,13 @@
         <v>43218</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -2988,13 +3000,13 @@
         <v>16032</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>57</v>
@@ -3003,13 +3015,13 @@
         <v>59250</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3036,13 @@
         <v>12363</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3039,13 +3051,13 @@
         <v>1992</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -3054,13 +3066,13 @@
         <v>14355</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3140,13 @@
         <v>178634</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>111</v>
@@ -3143,13 +3155,13 @@
         <v>112918</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>276</v>
@@ -3158,13 +3170,13 @@
         <v>291552</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3191,13 @@
         <v>50748</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -3194,13 +3206,13 @@
         <v>11647</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>60</v>
@@ -3209,13 +3221,13 @@
         <v>62395</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,13 +3295,13 @@
         <v>37433</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -3298,13 +3310,13 @@
         <v>54806</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -3313,13 +3325,13 @@
         <v>92238</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3346,13 @@
         <v>26095</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -3349,13 +3361,13 @@
         <v>18902</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>40</v>
@@ -3364,13 +3376,13 @@
         <v>44998</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3450,13 @@
         <v>259285</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>176</v>
@@ -3453,13 +3465,13 @@
         <v>183756</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>416</v>
@@ -3468,13 +3480,13 @@
         <v>443040</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>114</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3501,13 @@
         <v>89206</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>139</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -3504,13 +3516,13 @@
         <v>32542</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>112</v>
@@ -3519,13 +3531,13 @@
         <v>121748</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B32D10-EBDD-4130-B48A-205EBE682448}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8603195B-E400-4B3A-85C5-90F7E8311C38}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3617,7 +3629,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3724,13 +3736,13 @@
         <v>26268</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -3739,13 +3751,13 @@
         <v>20646</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>62</v>
@@ -3754,13 +3766,13 @@
         <v>46913</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3787,13 @@
         <v>4212</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3790,13 +3802,13 @@
         <v>8348</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -3805,13 +3817,13 @@
         <v>12561</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3891,13 @@
         <v>196552</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>255</v>
@@ -3894,13 +3906,13 @@
         <v>193749</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>443</v>
@@ -3909,13 +3921,13 @@
         <v>390301</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3942,13 @@
         <v>52798</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>52</v>
@@ -3945,13 +3957,13 @@
         <v>40212</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>103</v>
@@ -3960,13 +3972,13 @@
         <v>93010</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4046,13 @@
         <v>33660</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>86</v>
@@ -4049,13 +4061,13 @@
         <v>60914</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>115</v>
@@ -4064,13 +4076,13 @@
         <v>94574</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4097,13 @@
         <v>38157</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>45</v>
@@ -4100,13 +4112,13 @@
         <v>37182</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>79</v>
@@ -4115,13 +4127,13 @@
         <v>75339</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4201,13 @@
         <v>256479</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>373</v>
@@ -4204,13 +4216,13 @@
         <v>275309</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>620</v>
@@ -4219,13 +4231,13 @@
         <v>531788</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4252,13 @@
         <v>95167</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>100</v>
@@ -4255,13 +4267,13 @@
         <v>85743</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>190</v>
@@ -4270,13 +4282,13 @@
         <v>180910</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6901-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6901-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40BF951A-B668-47F5-8272-DDEA61614069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0E239E4-1652-42EA-AE05-87187BFC2907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED3F2597-D5B7-42D0-AA82-F0504F631570}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{980A3A61-257D-4DCD-805A-B909C2AD5EE5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -71,745 +71,739 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>86,14%</t>
   </si>
   <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
   </si>
   <si>
     <t>84,52%</t>
   </si>
   <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2012 (Tasa respuesta: 7,84%)</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
     <t>71,21%</t>
   </si>
   <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
   </si>
   <si>
     <t>28,79%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2012 (Tasa respuesta: 7,84%)</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
   </si>
   <si>
     <t>21,12%</t>
   </si>
   <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
   </si>
   <si>
     <t>78,83%</t>
   </si>
   <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
   </si>
   <si>
     <t>82,81%</t>
   </si>
   <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
   </si>
   <si>
     <t>80,76%</t>
   </si>
   <si>
-    <t>76,95%</t>
+    <t>76,85%</t>
   </si>
   <si>
     <t>84,0%</t>
@@ -818,19 +812,19 @@
     <t>21,17%</t>
   </si>
   <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
   </si>
   <si>
     <t>17,19%</t>
   </si>
   <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
   </si>
   <si>
     <t>19,24%</t>
@@ -839,115 +833,115 @@
     <t>16,0%</t>
   </si>
   <si>
-    <t>23,05%</t>
+    <t>23,15%</t>
   </si>
   <si>
     <t>46,87%</t>
   </si>
   <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
   </si>
   <si>
     <t>62,1%</t>
   </si>
   <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
   </si>
   <si>
     <t>55,66%</t>
   </si>
   <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
   </si>
   <si>
     <t>53,13%</t>
   </si>
   <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
   </si>
   <si>
     <t>37,9%</t>
   </si>
   <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
   </si>
   <si>
     <t>44,34%</t>
   </si>
   <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
   </si>
   <si>
     <t>72,94%</t>
   </si>
   <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
   </si>
   <si>
     <t>76,25%</t>
   </si>
   <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
   </si>
   <si>
     <t>74,62%</t>
   </si>
   <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
   </si>
   <si>
     <t>27,06%</t>
   </si>
   <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
   </si>
   <si>
     <t>23,75%</t>
   </si>
   <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
   </si>
   <si>
     <t>25,38%</t>
   </si>
   <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D830C1-59C4-4BCA-8401-45BA10102508}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411866CF-36B5-44A2-AFAA-42F6C97360AE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2110,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B97AF51-67AD-43FE-BC5D-93F3FF942EB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EFB8DE-4B8F-40FB-B0F0-4ABCCB36590A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2705,7 +2699,7 @@
         <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>152</v>
@@ -2714,13 +2708,13 @@
         <v>166663</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>385</v>
@@ -2729,13 +2723,13 @@
         <v>409079</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2744,13 @@
         <v>84178</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -2765,13 +2759,13 @@
         <v>46998</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>124</v>
@@ -2780,13 +2774,13 @@
         <v>131176</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F347713C-3890-42F6-BF39-F4E1C5AADA7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACBD75D-8F0A-47DA-9CE0-399E838ADDE1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2878,7 +2872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2985,13 +2979,13 @@
         <v>43218</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -3000,13 +2994,13 @@
         <v>16032</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>57</v>
@@ -3015,13 +3009,13 @@
         <v>59250</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3030,13 @@
         <v>12363</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3051,13 +3045,13 @@
         <v>1992</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -3066,13 +3060,13 @@
         <v>14355</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3134,13 @@
         <v>178634</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>111</v>
@@ -3155,13 +3149,13 @@
         <v>112918</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>276</v>
@@ -3170,13 +3164,13 @@
         <v>291552</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3185,13 @@
         <v>50748</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -3206,13 +3200,13 @@
         <v>11647</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>60</v>
@@ -3221,13 +3215,13 @@
         <v>62395</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,13 +3289,13 @@
         <v>37433</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -3310,13 +3304,13 @@
         <v>54806</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -3325,13 +3319,13 @@
         <v>92238</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3340,13 @@
         <v>26095</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -3361,13 +3355,13 @@
         <v>18902</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>40</v>
@@ -3376,13 +3370,13 @@
         <v>44998</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3444,13 @@
         <v>259285</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>176</v>
@@ -3465,13 +3459,13 @@
         <v>183756</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>416</v>
@@ -3480,13 +3474,13 @@
         <v>443040</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3495,13 @@
         <v>89206</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -3516,13 +3510,13 @@
         <v>32542</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="M14" s="7">
         <v>112</v>
@@ -3531,13 +3525,13 @@
         <v>121748</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8603195B-E400-4B3A-85C5-90F7E8311C38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743C491F-27F1-46A1-902D-3B1B82D3F959}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3629,7 +3623,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3736,13 +3730,13 @@
         <v>26268</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -3751,13 +3745,13 @@
         <v>20646</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>62</v>
@@ -3766,13 +3760,13 @@
         <v>46913</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3781,13 @@
         <v>4212</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3802,13 +3796,13 @@
         <v>8348</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -3817,13 +3811,13 @@
         <v>12561</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3885,13 @@
         <v>196552</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>255</v>
@@ -3906,13 +3900,13 @@
         <v>193749</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>443</v>
@@ -3921,13 +3915,13 @@
         <v>390301</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3936,13 @@
         <v>52798</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>52</v>
@@ -3957,13 +3951,13 @@
         <v>40212</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>103</v>
@@ -3972,13 +3966,13 @@
         <v>93010</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4040,13 @@
         <v>33660</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>86</v>
@@ -4061,13 +4055,13 @@
         <v>60914</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>115</v>
@@ -4076,13 +4070,13 @@
         <v>94574</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4091,13 @@
         <v>38157</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>45</v>
@@ -4112,13 +4106,13 @@
         <v>37182</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>79</v>
@@ -4127,13 +4121,13 @@
         <v>75339</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4195,13 @@
         <v>256479</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>373</v>
@@ -4216,13 +4210,13 @@
         <v>275309</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>620</v>
@@ -4231,13 +4225,13 @@
         <v>531788</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4246,13 @@
         <v>95167</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>100</v>
@@ -4267,13 +4261,13 @@
         <v>85743</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>190</v>
@@ -4282,13 +4276,13 @@
         <v>180910</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6901-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6901-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0E239E4-1652-42EA-AE05-87187BFC2907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77936B83-D58F-4624-ADF6-CC6ADBEC35D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{980A3A61-257D-4DCD-805A-B909C2AD5EE5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A648CDB2-5665-470F-8BC0-57027885654A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -728,220 +728,220 @@
     <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2023 (Tasa respuesta: 9,29%)</t>
   </si>
   <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
   </si>
   <si>
     <t>74,62%</t>
   </si>
   <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
   </si>
   <si>
     <t>25,38%</t>
   </si>
   <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411866CF-36B5-44A2-AFAA-42F6C97360AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE178C5-E44D-429D-BFCC-7CF740CD380A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2104,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EFB8DE-4B8F-40FB-B0F0-4ABCCB36590A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F842FA8C-6DC5-4937-91B9-D5CA50F3FE4F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2855,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACBD75D-8F0A-47DA-9CE0-399E838ADDE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16917990-1260-4F7B-BC2E-8B06E90D6A37}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3606,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743C491F-27F1-46A1-902D-3B1B82D3F959}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B6D53D-C557-4819-8335-7B020D182270}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3727,7 +3727,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>26268</v>
+        <v>25173</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>229</v>
@@ -3742,7 +3742,7 @@
         <v>32</v>
       </c>
       <c r="I4" s="7">
-        <v>20646</v>
+        <v>18644</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>232</v>
@@ -3757,7 +3757,7 @@
         <v>62</v>
       </c>
       <c r="N4" s="7">
-        <v>46913</v>
+        <v>43818</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>235</v>
@@ -3778,7 +3778,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>4212</v>
+        <v>4041</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>238</v>
@@ -3793,7 +3793,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>8348</v>
+        <v>6342</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>241</v>
@@ -3808,7 +3808,7 @@
         <v>8</v>
       </c>
       <c r="N5" s="7">
-        <v>12561</v>
+        <v>10382</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>244</v>
@@ -3829,7 +3829,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="7">
-        <v>30480</v>
+        <v>29214</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3844,7 +3844,7 @@
         <v>35</v>
       </c>
       <c r="I6" s="7">
-        <v>28994</v>
+        <v>24986</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3859,7 +3859,7 @@
         <v>70</v>
       </c>
       <c r="N6" s="7">
-        <v>59474</v>
+        <v>54200</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3882,7 +3882,7 @@
         <v>188</v>
       </c>
       <c r="D7" s="7">
-        <v>196552</v>
+        <v>188079</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>247</v>
@@ -3897,7 +3897,7 @@
         <v>255</v>
       </c>
       <c r="I7" s="7">
-        <v>193749</v>
+        <v>201181</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>250</v>
@@ -3912,7 +3912,7 @@
         <v>443</v>
       </c>
       <c r="N7" s="7">
-        <v>390301</v>
+        <v>389260</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>253</v>
@@ -3933,7 +3933,7 @@
         <v>51</v>
       </c>
       <c r="D8" s="7">
-        <v>52798</v>
+        <v>51501</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>256</v>
@@ -3948,7 +3948,7 @@
         <v>52</v>
       </c>
       <c r="I8" s="7">
-        <v>40212</v>
+        <v>37187</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>259</v>
@@ -3963,7 +3963,7 @@
         <v>103</v>
       </c>
       <c r="N8" s="7">
-        <v>93010</v>
+        <v>88688</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>262</v>
@@ -3984,7 +3984,7 @@
         <v>239</v>
       </c>
       <c r="D9" s="7">
-        <v>249350</v>
+        <v>239580</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3999,7 +3999,7 @@
         <v>307</v>
       </c>
       <c r="I9" s="7">
-        <v>233961</v>
+        <v>238368</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4014,7 +4014,7 @@
         <v>546</v>
       </c>
       <c r="N9" s="7">
-        <v>483311</v>
+        <v>477948</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4037,7 +4037,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="7">
-        <v>33660</v>
+        <v>32540</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>265</v>
@@ -4052,7 +4052,7 @@
         <v>86</v>
       </c>
       <c r="I10" s="7">
-        <v>60914</v>
+        <v>56269</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>268</v>
@@ -4067,7 +4067,7 @@
         <v>115</v>
       </c>
       <c r="N10" s="7">
-        <v>94574</v>
+        <v>88809</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>271</v>
@@ -4088,7 +4088,7 @@
         <v>34</v>
       </c>
       <c r="D11" s="7">
-        <v>38157</v>
+        <v>36986</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>274</v>
@@ -4103,7 +4103,7 @@
         <v>45</v>
       </c>
       <c r="I11" s="7">
-        <v>37182</v>
+        <v>34426</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>277</v>
@@ -4118,7 +4118,7 @@
         <v>79</v>
       </c>
       <c r="N11" s="7">
-        <v>75339</v>
+        <v>71412</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>280</v>
@@ -4139,7 +4139,7 @@
         <v>63</v>
       </c>
       <c r="D12" s="7">
-        <v>71817</v>
+        <v>69526</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4154,7 +4154,7 @@
         <v>131</v>
       </c>
       <c r="I12" s="7">
-        <v>98096</v>
+        <v>90695</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4169,7 +4169,7 @@
         <v>194</v>
       </c>
       <c r="N12" s="7">
-        <v>169913</v>
+        <v>160221</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4192,7 +4192,7 @@
         <v>247</v>
       </c>
       <c r="D13" s="7">
-        <v>256479</v>
+        <v>245792</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>283</v>
@@ -4207,7 +4207,7 @@
         <v>373</v>
       </c>
       <c r="I13" s="7">
-        <v>275309</v>
+        <v>276095</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>286</v>
@@ -4222,7 +4222,7 @@
         <v>620</v>
       </c>
       <c r="N13" s="7">
-        <v>531788</v>
+        <v>521887</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>289</v>
@@ -4243,7 +4243,7 @@
         <v>90</v>
       </c>
       <c r="D14" s="7">
-        <v>95167</v>
+        <v>92528</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>292</v>
@@ -4258,7 +4258,7 @@
         <v>100</v>
       </c>
       <c r="I14" s="7">
-        <v>85743</v>
+        <v>77954</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>295</v>
@@ -4273,7 +4273,7 @@
         <v>190</v>
       </c>
       <c r="N14" s="7">
-        <v>180910</v>
+        <v>170482</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>298</v>
@@ -4294,7 +4294,7 @@
         <v>337</v>
       </c>
       <c r="D15" s="7">
-        <v>351646</v>
+        <v>338320</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4309,7 +4309,7 @@
         <v>473</v>
       </c>
       <c r="I15" s="7">
-        <v>361052</v>
+        <v>354049</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4324,7 +4324,7 @@
         <v>810</v>
       </c>
       <c r="N15" s="7">
-        <v>712698</v>
+        <v>692369</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
